--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-485973.5039925984</v>
+        <v>-487898.1075594563</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3180051.965155033</v>
+        <v>3180051.965155029</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37.42681674263682</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="G2" t="n">
-        <v>276.1565137023554</v>
+        <v>63.012659064933</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>60.84511282695762</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>84.16338860360452</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,16 +789,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>13.46550985000071</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>341.8733101690329</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>286.1874838041619</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>341.8733101690329</v>
       </c>
       <c r="F5" t="n">
-        <v>341.8733101690325</v>
+        <v>341.8733101690329</v>
       </c>
       <c r="G5" t="n">
-        <v>341.8733101690325</v>
+        <v>14.93452779272217</v>
       </c>
       <c r="H5" t="n">
-        <v>225.2308260145638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>196.2804842470835</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.484011504269</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -978,13 +978,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>91.54900817467306</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>82.61362792373495</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9284209250621</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>228.7988522035777</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>3.080181780086246</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>244.1133419722386</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>247.1935237523252</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>86.82299416240477</v>
+        <v>153.1349952010825</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>84.8456160187848</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>44.82579829756118</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.4898845065123</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>183.4653217847137</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>73.6280990829018</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>192.8420103797913</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505273976</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>88.37735646243594</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>269.4728189073161</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505273959</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>152.3936051880912</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>74.25915907972914</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>161.430894639085</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>127.0199624800789</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>96.91376889144533</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>179.5197244407508</v>
       </c>
       <c r="T25" t="n">
-        <v>203.1464755155369</v>
+        <v>203.1464755155368</v>
       </c>
       <c r="U25" t="n">
-        <v>267.836266855725</v>
+        <v>267.8362668557249</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>233.7365577809756</v>
       </c>
       <c r="W25" t="n">
-        <v>268.1219127937387</v>
+        <v>268.1219127937386</v>
       </c>
       <c r="X25" t="n">
         <v>207.3085698461848</v>
       </c>
       <c r="Y25" t="n">
-        <v>200.1835678092424</v>
+        <v>172.2919115981253</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>161.430894639085</v>
+        <v>51.17180005612981</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>148.8457355557754</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>148.0924829205252</v>
       </c>
       <c r="H28" t="n">
-        <v>109.9409575257479</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>92.0181599214196</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>179.5197244407508</v>
       </c>
       <c r="T28" t="n">
-        <v>203.1464755155369</v>
+        <v>203.1464755155368</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>233.7365577809757</v>
+        <v>233.7365577809756</v>
       </c>
       <c r="W28" t="n">
-        <v>268.1219127937387</v>
+        <v>268.1219127937386</v>
       </c>
       <c r="X28" t="n">
         <v>207.3085698461848</v>
       </c>
       <c r="Y28" t="n">
-        <v>200.1835678092424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2849,7 +2849,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>161.430894639085</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>37.98240342113669</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>128.0328771037168</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>127.0199624800788</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>92.01815992141964</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>179.5197244407508</v>
       </c>
       <c r="T31" t="n">
-        <v>203.1464755155369</v>
+        <v>203.1464755155368</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>165.0157330532462</v>
       </c>
       <c r="V31" t="n">
-        <v>233.7365577809757</v>
+        <v>233.7365577809756</v>
       </c>
       <c r="W31" t="n">
-        <v>268.1219127937387</v>
+        <v>268.1219127937386</v>
       </c>
       <c r="X31" t="n">
         <v>207.3085698461848</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.1835678092424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3199,7 +3199,7 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789547</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>314.6019515338399</v>
+        <v>314.60195153384</v>
       </c>
       <c r="C38" t="n">
         <v>297.1410016413669</v>
@@ -3509,19 +3509,19 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E38" t="n">
-        <v>313.7984799426211</v>
+        <v>313.7984799426212</v>
       </c>
       <c r="F38" t="n">
-        <v>338.7441556120707</v>
+        <v>338.7441556120708</v>
       </c>
       <c r="G38" t="n">
         <v>343.8326266600508</v>
       </c>
       <c r="H38" t="n">
-        <v>237.155358981677</v>
+        <v>237.1553589816771</v>
       </c>
       <c r="I38" t="n">
-        <v>13.64724492310012</v>
+        <v>13.64724492310015</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>259.6203683404942</v>
       </c>
       <c r="W38" t="n">
-        <v>281.1090785877723</v>
+        <v>281.1090785877721</v>
       </c>
       <c r="X38" t="n">
         <v>301.5992105488284</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3749,7 +3749,7 @@
         <v>313.7984799426211</v>
       </c>
       <c r="F41" t="n">
-        <v>338.7441556120708</v>
+        <v>338.7441556120707</v>
       </c>
       <c r="G41" t="n">
         <v>343.8326266600508</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>64.81847467555822</v>
+        <v>64.81847467555819</v>
       </c>
       <c r="T41" t="n">
         <v>140.3508982088613</v>
@@ -3797,7 +3797,7 @@
         <v>182.9467051201603</v>
       </c>
       <c r="V41" t="n">
-        <v>259.6203683404945</v>
+        <v>259.6203683404942</v>
       </c>
       <c r="W41" t="n">
         <v>281.1090785877723</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4028,13 +4028,13 @@
         <v>64.81847467555822</v>
       </c>
       <c r="T44" t="n">
-        <v>140.3508982088613</v>
+        <v>140.3508982088615</v>
       </c>
       <c r="U44" t="n">
         <v>182.9467051201603</v>
       </c>
       <c r="V44" t="n">
-        <v>259.6203683404945</v>
+        <v>259.6203683404942</v>
       </c>
       <c r="W44" t="n">
         <v>281.1090785877723</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>579.9844679696338</v>
+        <v>571.8069603738999</v>
       </c>
       <c r="C2" t="n">
-        <v>579.9844679696338</v>
+        <v>571.8069603738999</v>
       </c>
       <c r="D2" t="n">
-        <v>579.9844679696338</v>
+        <v>571.8069603738999</v>
       </c>
       <c r="E2" t="n">
-        <v>579.9844679696338</v>
+        <v>571.8069603738999</v>
       </c>
       <c r="F2" t="n">
-        <v>301.0384945329111</v>
+        <v>292.8609869371771</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618843</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618843</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
         <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4355,25 +4355,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>896.7353068029593</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>896.7353068029593</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U2" t="n">
-        <v>896.7353068029593</v>
+        <v>850.7529338106226</v>
       </c>
       <c r="V2" t="n">
-        <v>896.7353068029593</v>
+        <v>850.7529338106226</v>
       </c>
       <c r="W2" t="n">
-        <v>617.7893333662366</v>
+        <v>850.7529338106226</v>
       </c>
       <c r="X2" t="n">
-        <v>617.7893333662366</v>
+        <v>571.8069603738999</v>
       </c>
       <c r="Y2" t="n">
-        <v>617.7893333662366</v>
+        <v>571.8069603738999</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>453.9547486952998</v>
+        <v>841.2864449113114</v>
       </c>
       <c r="C3" t="n">
-        <v>453.9547486952998</v>
+        <v>666.8334156301844</v>
       </c>
       <c r="D3" t="n">
-        <v>453.9547486952998</v>
+        <v>666.8334156301844</v>
       </c>
       <c r="E3" t="n">
-        <v>368.941224853275</v>
+        <v>507.5959606247288</v>
       </c>
       <c r="F3" t="n">
-        <v>222.40666688016</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="G3" t="n">
         <v>222.40666688016</v>
@@ -4404,28 +4404,28 @@
         <v>109.772397078701</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318534</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>165.799003153448</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L3" t="n">
-        <v>411.954469746149</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
-        <v>634.3469862468014</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="N3" t="n">
-        <v>907.7419348121333</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121333</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P3" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
@@ -4437,22 +4437,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>1104.626054809422</v>
+        <v>902.7461548375312</v>
       </c>
       <c r="U3" t="n">
-        <v>876.4074424435694</v>
+        <v>902.7461548375312</v>
       </c>
       <c r="V3" t="n">
-        <v>876.4074424435694</v>
+        <v>902.7461548375312</v>
       </c>
       <c r="W3" t="n">
-        <v>622.1700857153678</v>
+        <v>902.7461548375312</v>
       </c>
       <c r="X3" t="n">
-        <v>622.1700857153678</v>
+        <v>902.7461548375312</v>
       </c>
       <c r="Y3" t="n">
-        <v>622.1700857153678</v>
+        <v>902.7461548375312</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618843</v>
+        <v>185.391191902125</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618843</v>
+        <v>185.391191902125</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1143.772016934444</v>
+        <v>1022.166664747816</v>
       </c>
       <c r="C5" t="n">
-        <v>1143.772016934444</v>
+        <v>733.0883982789651</v>
       </c>
       <c r="D5" t="n">
-        <v>1143.772016934444</v>
+        <v>733.0883982789651</v>
       </c>
       <c r="E5" t="n">
-        <v>1143.772016934444</v>
+        <v>387.761822350649</v>
       </c>
       <c r="F5" t="n">
-        <v>798.4454410061286</v>
+        <v>42.43524642233291</v>
       </c>
       <c r="G5" t="n">
-        <v>453.1188650778129</v>
+        <v>27.34986481352263</v>
       </c>
       <c r="H5" t="n">
-        <v>225.6129802146171</v>
+        <v>27.34986481352263</v>
       </c>
       <c r="I5" t="n">
-        <v>27.3498648135226</v>
+        <v>27.34986481352263</v>
       </c>
       <c r="J5" t="n">
-        <v>46.45889488081963</v>
+        <v>46.45889488081974</v>
       </c>
       <c r="K5" t="n">
-        <v>195.8431816943452</v>
+        <v>195.8431816943454</v>
       </c>
       <c r="L5" t="n">
-        <v>433.4442264909769</v>
+        <v>433.4442264909776</v>
       </c>
       <c r="M5" t="n">
-        <v>714.4277151203047</v>
+        <v>714.4277151203056</v>
       </c>
       <c r="N5" t="n">
-        <v>985.3258128090351</v>
+        <v>985.3258128090363</v>
       </c>
       <c r="O5" t="n">
-        <v>1195.939566860204</v>
+        <v>1195.939566860205</v>
       </c>
       <c r="P5" t="n">
-        <v>1338.019150313928</v>
+        <v>1338.019150313929</v>
       </c>
       <c r="Q5" t="n">
-        <v>1367.49324067613</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="R5" t="n">
-        <v>1367.49324067613</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="S5" t="n">
-        <v>1367.49324067613</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="T5" t="n">
-        <v>1143.772016934444</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="U5" t="n">
-        <v>1143.772016934444</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="V5" t="n">
-        <v>1143.772016934444</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="W5" t="n">
-        <v>1143.772016934444</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="X5" t="n">
-        <v>1143.772016934444</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="Y5" t="n">
-        <v>1143.772016934444</v>
+        <v>1367.493240676132</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>739.9574257483451</v>
+        <v>294.2766397256325</v>
       </c>
       <c r="C6" t="n">
-        <v>565.5043964672182</v>
+        <v>119.8236104445055</v>
       </c>
       <c r="D6" t="n">
-        <v>416.5699868059668</v>
+        <v>27.34986481352263</v>
       </c>
       <c r="E6" t="n">
-        <v>257.3325318005113</v>
+        <v>27.34986481352263</v>
       </c>
       <c r="F6" t="n">
-        <v>110.7979738273963</v>
+        <v>27.34986481352263</v>
       </c>
       <c r="G6" t="n">
-        <v>110.7979738273963</v>
+        <v>27.34986481352263</v>
       </c>
       <c r="H6" t="n">
-        <v>110.7979738273963</v>
+        <v>27.34986481352263</v>
       </c>
       <c r="I6" t="n">
-        <v>27.3498648135226</v>
+        <v>27.34986481352263</v>
       </c>
       <c r="J6" t="n">
-        <v>45.03769252864019</v>
+        <v>45.03769252864028</v>
       </c>
       <c r="K6" t="n">
-        <v>201.8898504843343</v>
+        <v>201.8898504843345</v>
       </c>
       <c r="L6" t="n">
-        <v>474.2013299011364</v>
+        <v>474.2013299011368</v>
       </c>
       <c r="M6" t="n">
-        <v>812.6559069684786</v>
+        <v>812.6559069684794</v>
       </c>
       <c r="N6" t="n">
-        <v>852.4475113374581</v>
+        <v>1147.605777858204</v>
       </c>
       <c r="O6" t="n">
-        <v>1147.605777858203</v>
+        <v>1147.605777858204</v>
       </c>
       <c r="P6" t="n">
-        <v>1367.49324067613</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="Q6" t="n">
-        <v>1367.49324067613</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="R6" t="n">
-        <v>1367.49324067613</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="S6" t="n">
-        <v>1367.49324067613</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="T6" t="n">
-        <v>1367.49324067613</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="U6" t="n">
-        <v>1139.282714489199</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="V6" t="n">
-        <v>1139.282714489199</v>
+        <v>1132.341132444389</v>
       </c>
       <c r="W6" t="n">
-        <v>908.1727627684131</v>
+        <v>878.1037757161873</v>
       </c>
       <c r="X6" t="n">
-        <v>908.1727627684131</v>
+        <v>670.2522755106545</v>
       </c>
       <c r="Y6" t="n">
-        <v>908.1727627684131</v>
+        <v>462.4919767457006</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.46115954088245</v>
+        <v>27.34986481352263</v>
       </c>
       <c r="C7" t="n">
-        <v>30.46115954088245</v>
+        <v>27.34986481352263</v>
       </c>
       <c r="D7" t="n">
-        <v>30.46115954088245</v>
+        <v>27.34986481352263</v>
       </c>
       <c r="E7" t="n">
-        <v>30.46115954088245</v>
+        <v>27.34986481352263</v>
       </c>
       <c r="F7" t="n">
-        <v>30.46115954088245</v>
+        <v>27.34986481352263</v>
       </c>
       <c r="G7" t="n">
-        <v>30.46115954088245</v>
+        <v>27.34986481352263</v>
       </c>
       <c r="H7" t="n">
-        <v>30.46115954088245</v>
+        <v>27.34986481352263</v>
       </c>
       <c r="I7" t="n">
-        <v>30.46115954088245</v>
+        <v>27.34986481352263</v>
       </c>
       <c r="J7" t="n">
-        <v>30.46115954088245</v>
+        <v>27.34986481352263</v>
       </c>
       <c r="K7" t="n">
-        <v>27.3498648135226</v>
+        <v>27.34986481352263</v>
       </c>
       <c r="L7" t="n">
-        <v>78.97414292953513</v>
+        <v>78.97414292953523</v>
       </c>
       <c r="M7" t="n">
-        <v>143.7938290394783</v>
+        <v>143.7938290394785</v>
       </c>
       <c r="N7" t="n">
-        <v>212.5068643147022</v>
+        <v>212.5068643147025</v>
       </c>
       <c r="O7" t="n">
-        <v>259.9581784039149</v>
+        <v>259.9581784039152</v>
       </c>
       <c r="P7" t="n">
-        <v>277.040292846174</v>
+        <v>277.0402928461743</v>
       </c>
       <c r="Q7" t="n">
-        <v>277.040292846174</v>
+        <v>277.0402928461743</v>
       </c>
       <c r="R7" t="n">
-        <v>277.040292846174</v>
+        <v>277.0402928461743</v>
       </c>
       <c r="S7" t="n">
-        <v>277.040292846174</v>
+        <v>277.0402928461743</v>
       </c>
       <c r="T7" t="n">
-        <v>277.040292846174</v>
+        <v>277.0402928461743</v>
       </c>
       <c r="U7" t="n">
-        <v>30.46115954088245</v>
+        <v>277.0402928461743</v>
       </c>
       <c r="V7" t="n">
-        <v>30.46115954088245</v>
+        <v>27.34986481352263</v>
       </c>
       <c r="W7" t="n">
-        <v>30.46115954088245</v>
+        <v>27.34986481352263</v>
       </c>
       <c r="X7" t="n">
-        <v>30.46115954088245</v>
+        <v>27.34986481352263</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.46115954088245</v>
+        <v>27.34986481352263</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1851.286880367297</v>
+        <v>1723.03492661696</v>
       </c>
       <c r="C8" t="n">
-        <v>1482.324363426885</v>
+        <v>1723.03492661696</v>
       </c>
       <c r="D8" t="n">
-        <v>1124.058664820135</v>
+        <v>1364.769228010209</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.752638628377</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.752638628377</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X8" t="n">
-        <v>1851.286880367297</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y8" t="n">
-        <v>1851.286880367297</v>
+        <v>1723.03492661696</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>438.9553738610024</v>
+        <v>332.1920961943574</v>
       </c>
       <c r="C10" t="n">
-        <v>438.9553738610024</v>
+        <v>332.1920961943574</v>
       </c>
       <c r="D10" t="n">
-        <v>438.9553738610024</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="E10" t="n">
-        <v>438.9553738610024</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F10" t="n">
-        <v>438.9553738610024</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
         <v>99.5995062532301</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610024</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610024</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610024</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.9553738610024</v>
+        <v>513.8405610245972</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5030,61 +5030,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277035</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341677</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>216.903843487066</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>216.903843487066</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>216.903843487066</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>216.903843487066</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1313.597763704656</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>800.6837097077203</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655741</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286134</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>437.6964226305961</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.903843487066</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5358,22 +5358,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>565.9270610048576</v>
+        <v>468.5954956259883</v>
       </c>
       <c r="C16" t="n">
-        <v>565.9270610048576</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5434,16 +5434,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241961</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,7 +5452,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609663</v>
       </c>
       <c r="V16" t="n">
-        <v>1304.126361083366</v>
+        <v>986.0022165609663</v>
       </c>
       <c r="W16" t="n">
-        <v>1014.709191046405</v>
+        <v>696.5850465240056</v>
       </c>
       <c r="X16" t="n">
-        <v>786.7196401483877</v>
+        <v>468.5954956259883</v>
       </c>
       <c r="Y16" t="n">
-        <v>565.9270610048576</v>
+        <v>468.5954956259883</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822452</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5546,19 +5546,19 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>412.607977814708</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211719</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M18" t="n">
-        <v>966.6932390011334</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1771.104817265284</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2050.644882483981</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>562.3990000507114</v>
+        <v>523.5986531011361</v>
       </c>
       <c r="C19" t="n">
-        <v>562.3990000507114</v>
+        <v>354.6624701732292</v>
       </c>
       <c r="D19" t="n">
-        <v>412.2823606383756</v>
+        <v>354.6624701732292</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
         <v>265.3924131404652</v>
@@ -5671,13 +5671,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471189</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W19" t="n">
-        <v>972.0370157789685</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="X19" t="n">
-        <v>744.0474648809511</v>
+        <v>705.2471179313758</v>
       </c>
       <c r="Y19" t="n">
-        <v>744.0474648809511</v>
+        <v>705.2471179313758</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823786</v>
@@ -5774,28 +5774,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F21" t="n">
         <v>358.2718071316295</v>
@@ -5826,10 +5826,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
         <v>674.4285624571608</v>
@@ -5847,10 +5847,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5865,7 +5865,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W21" t="n">
         <v>1571.258395043133</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>711.072954880832</v>
+        <v>696.2811958984814</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1367719529251</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,16 +5914,16 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5938,22 +5938,22 @@
         <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U22" t="n">
-        <v>786.082206476518</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="V22" t="n">
-        <v>711.072954880832</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="W22" t="n">
-        <v>711.072954880832</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="X22" t="n">
-        <v>711.072954880832</v>
+        <v>1071.006709575437</v>
       </c>
       <c r="Y22" t="n">
-        <v>711.072954880832</v>
+        <v>850.2141304319069</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822463</v>
@@ -5987,49 +5987,49 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823804</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514099</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6084,7 +6084,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262063</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>323.4127797143508</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>323.4127797143508</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>323.4127797143508</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>323.4127797143508</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>195.1097873102307</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>195.1097873102307</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028587</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>127.8168586116198</v>
+        <v>127.8168586116196</v>
       </c>
       <c r="K25" t="n">
-        <v>296.219337543655</v>
+        <v>296.2193375436549</v>
       </c>
       <c r="L25" t="n">
         <v>562.148457242208</v>
       </c>
       <c r="M25" t="n">
-        <v>851.9322746968147</v>
+        <v>851.9322746968146</v>
       </c>
       <c r="N25" t="n">
         <v>1140.693458411786</v>
@@ -6163,7 +6163,7 @@
         <v>1392.785511104607</v>
       </c>
       <c r="P25" t="n">
-        <v>1587.602350397713</v>
+        <v>1587.602350397714</v>
       </c>
       <c r="Q25" t="n">
         <v>1644.652868057293</v>
@@ -6172,25 +6172,25 @@
         <v>1644.652868057293</v>
       </c>
       <c r="S25" t="n">
-        <v>1644.652868057293</v>
+        <v>1463.319813066636</v>
       </c>
       <c r="T25" t="n">
-        <v>1439.454407940589</v>
+        <v>1258.121352949932</v>
       </c>
       <c r="U25" t="n">
-        <v>1168.912724247938</v>
+        <v>987.5796692572803</v>
       </c>
       <c r="V25" t="n">
-        <v>1168.912724247938</v>
+        <v>751.4821361451837</v>
       </c>
       <c r="W25" t="n">
-        <v>898.0825093047672</v>
+        <v>480.6519212020135</v>
       </c>
       <c r="X25" t="n">
-        <v>688.6799135005401</v>
+        <v>271.2493253977862</v>
       </c>
       <c r="Y25" t="n">
-        <v>486.4742894508003</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,13 +6221,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,37 +6236,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F27" t="n">
         <v>358.2718071316295</v>
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636247</v>
+        <v>709.4934589365146</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6339,7 +6339,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>357.8569302949052</v>
+        <v>490.1023221650538</v>
       </c>
       <c r="C28" t="n">
-        <v>357.8569302949052</v>
+        <v>339.7530943309372</v>
       </c>
       <c r="D28" t="n">
-        <v>357.8569302949052</v>
+        <v>339.7530943309372</v>
       </c>
       <c r="E28" t="n">
-        <v>357.8569302949052</v>
+        <v>339.7530943309372</v>
       </c>
       <c r="F28" t="n">
-        <v>357.8569302949052</v>
+        <v>339.7530943309372</v>
       </c>
       <c r="G28" t="n">
-        <v>208.2685637085161</v>
+        <v>190.1647277445481</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>190.1647277445481</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>127.8168586116195</v>
+        <v>127.8168586116196</v>
       </c>
       <c r="K28" t="n">
-        <v>296.2193375436548</v>
+        <v>296.2193375436549</v>
       </c>
       <c r="L28" t="n">
-        <v>562.1484572422078</v>
+        <v>562.148457242208</v>
       </c>
       <c r="M28" t="n">
-        <v>851.9322746968143</v>
+        <v>851.9322746968146</v>
       </c>
       <c r="N28" t="n">
         <v>1140.693458411786</v>
       </c>
       <c r="O28" t="n">
-        <v>1392.785511104606</v>
+        <v>1392.785511104607</v>
       </c>
       <c r="P28" t="n">
         <v>1587.602350397713</v>
@@ -6409,25 +6409,25 @@
         <v>1644.652868057293</v>
       </c>
       <c r="S28" t="n">
-        <v>1644.652868057293</v>
+        <v>1463.319813066636</v>
       </c>
       <c r="T28" t="n">
-        <v>1439.454407940589</v>
+        <v>1258.121352949932</v>
       </c>
       <c r="U28" t="n">
-        <v>1439.454407940589</v>
+        <v>1258.121352949932</v>
       </c>
       <c r="V28" t="n">
-        <v>1203.356874828492</v>
+        <v>1022.023819837835</v>
       </c>
       <c r="W28" t="n">
-        <v>932.5266598853216</v>
+        <v>751.1936048946648</v>
       </c>
       <c r="X28" t="n">
-        <v>723.1240640810945</v>
+        <v>541.7910090904377</v>
       </c>
       <c r="Y28" t="n">
-        <v>520.9184400313546</v>
+        <v>541.7910090904377</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6455,13 +6455,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514081</v>
@@ -6485,28 +6485,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
         <v>358.2718071316295</v>
@@ -6537,10 +6537,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
         <v>674.4285624571608</v>
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6576,7 +6576,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
         <v>1571.258395043133</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>357.8569302949052</v>
+        <v>375.108450450795</v>
       </c>
       <c r="C31" t="n">
-        <v>319.490866233151</v>
+        <v>375.108450450795</v>
       </c>
       <c r="D31" t="n">
-        <v>319.490866233151</v>
+        <v>375.108450450795</v>
       </c>
       <c r="E31" t="n">
-        <v>190.1647277445481</v>
+        <v>375.108450450795</v>
       </c>
       <c r="F31" t="n">
-        <v>190.1647277445481</v>
+        <v>246.8054580466749</v>
       </c>
       <c r="G31" t="n">
-        <v>190.1647277445481</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>190.1647277445481</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>127.8168586116196</v>
       </c>
       <c r="K31" t="n">
-        <v>296.2193375436547</v>
+        <v>296.2193375436548</v>
       </c>
       <c r="L31" t="n">
-        <v>562.1484572422078</v>
+        <v>562.1484572422079</v>
       </c>
       <c r="M31" t="n">
-        <v>851.9322746968143</v>
+        <v>851.9322746968144</v>
       </c>
       <c r="N31" t="n">
         <v>1140.693458411786</v>
@@ -6640,31 +6640,31 @@
         <v>1587.602350397713</v>
       </c>
       <c r="Q31" t="n">
-        <v>1644.652868057292</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="R31" t="n">
-        <v>1644.652868057292</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="S31" t="n">
-        <v>1644.652868057292</v>
+        <v>1463.319813066635</v>
       </c>
       <c r="T31" t="n">
-        <v>1439.454407940588</v>
+        <v>1258.121352949931</v>
       </c>
       <c r="U31" t="n">
-        <v>1439.454407940588</v>
+        <v>1091.438794310289</v>
       </c>
       <c r="V31" t="n">
-        <v>1203.356874828492</v>
+        <v>855.3412611981923</v>
       </c>
       <c r="W31" t="n">
-        <v>932.5266598853216</v>
+        <v>584.5110462550221</v>
       </c>
       <c r="X31" t="n">
-        <v>723.1240640810945</v>
+        <v>375.108450450795</v>
       </c>
       <c r="Y31" t="n">
-        <v>520.9184400313545</v>
+        <v>375.108450450795</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6725,7 +6725,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636247</v>
+        <v>796.3635653766199</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656581</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320614</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2103.010087623273</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108323</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229664</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506717</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504504</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103125</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010309</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>676.7913636872896</v>
       </c>
       <c r="G35" t="n">
-        <v>329.485680192289</v>
+        <v>329.4856801922888</v>
       </c>
       <c r="H35" t="n">
         <v>89.93481253402939</v>
@@ -6938,19 +6938,19 @@
         <v>344.8139583742028</v>
       </c>
       <c r="K35" t="n">
-        <v>547.3128584977793</v>
+        <v>590.7154876889665</v>
       </c>
       <c r="L35" t="n">
-        <v>835.4324121366315</v>
+        <v>1292.319643732764</v>
       </c>
       <c r="M35" t="n">
-        <v>1632.708765856522</v>
+        <v>2089.595997452655</v>
       </c>
       <c r="N35" t="n">
-        <v>2428.253886960552</v>
+        <v>2885.141118556686</v>
       </c>
       <c r="O35" t="n">
-        <v>2895.591279040996</v>
+        <v>3214.172000130764</v>
       </c>
       <c r="P35" t="n">
         <v>3460.491244296799</v>
@@ -6968,7 +6968,7 @@
         <v>3600.244041813158</v>
       </c>
       <c r="U35" t="n">
-        <v>3415.449390176633</v>
+        <v>3415.449390176632</v>
       </c>
       <c r="V35" t="n">
         <v>3153.206593873103</v>
@@ -7014,28 +7014,28 @@
         <v>76.14971665211003</v>
       </c>
       <c r="J36" t="n">
-        <v>242.4709188044723</v>
+        <v>117.6407938174676</v>
       </c>
       <c r="K36" t="n">
-        <v>653.3611876489849</v>
+        <v>266.7104780195274</v>
       </c>
       <c r="L36" t="n">
-        <v>900.1263155554489</v>
+        <v>688.4260841283387</v>
       </c>
       <c r="M36" t="n">
-        <v>1207.44644883541</v>
+        <v>995.7462174083003</v>
       </c>
       <c r="N36" t="n">
-        <v>1537.309076499443</v>
+        <v>1325.608845072333</v>
       </c>
       <c r="O36" t="n">
-        <v>1816.84914171814</v>
+        <v>1995.072606374992</v>
       </c>
       <c r="P36" t="n">
-        <v>2296.766701154948</v>
+        <v>2515.373228110739</v>
       </c>
       <c r="Q36" t="n">
-        <v>2591.876118470662</v>
+        <v>2602.506130567962</v>
       </c>
       <c r="R36" t="n">
         <v>2602.506130567962</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>638.392864302657</v>
+        <v>638.3928643026574</v>
       </c>
       <c r="C37" t="n">
-        <v>538.2767724147911</v>
+        <v>538.2767724147915</v>
       </c>
       <c r="D37" t="n">
-        <v>456.9802240424965</v>
+        <v>456.9802240424968</v>
       </c>
       <c r="E37" t="n">
-        <v>377.8872215001444</v>
+        <v>377.8872215001448</v>
       </c>
       <c r="F37" t="n">
-        <v>299.8173650422751</v>
+        <v>299.8173650422755</v>
       </c>
       <c r="G37" t="n">
-        <v>200.4621344021368</v>
+        <v>200.4621344021372</v>
       </c>
       <c r="H37" t="n">
-        <v>118.8642169901211</v>
+        <v>118.8642169901215</v>
       </c>
       <c r="I37" t="n">
         <v>76.14971665211003</v>
@@ -7114,7 +7114,7 @@
         <v>1911.16945137598</v>
       </c>
       <c r="Q37" t="n">
-        <v>2017.453465576481</v>
+        <v>2017.45346557648</v>
       </c>
       <c r="R37" t="n">
         <v>1975.198453178347</v>
@@ -7132,13 +7132,13 @@
         <v>1282.960265051241</v>
       </c>
       <c r="W37" t="n">
-        <v>1062.363186054321</v>
+        <v>1062.363186054322</v>
       </c>
       <c r="X37" t="n">
-        <v>903.1937261963446</v>
+        <v>903.1937261963451</v>
       </c>
       <c r="Y37" t="n">
-        <v>751.2212380928556</v>
+        <v>751.221238092856</v>
       </c>
     </row>
     <row r="38">
@@ -7148,49 +7148,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1925.513372462139</v>
+        <v>1925.51337246214</v>
       </c>
       <c r="C38" t="n">
         <v>1625.370946561769</v>
       </c>
       <c r="D38" t="n">
-        <v>1335.925338995059</v>
+        <v>1335.92533899506</v>
       </c>
       <c r="E38" t="n">
         <v>1018.957177436856</v>
       </c>
       <c r="F38" t="n">
-        <v>676.7913636872897</v>
+        <v>676.79136368729</v>
       </c>
       <c r="G38" t="n">
-        <v>329.485680192289</v>
+        <v>329.4856801922891</v>
       </c>
       <c r="H38" t="n">
-        <v>89.93481253402933</v>
+        <v>89.93481253402938</v>
       </c>
       <c r="I38" t="n">
         <v>76.14971665211003</v>
       </c>
       <c r="J38" t="n">
-        <v>344.8139583742028</v>
+        <v>221.4162488685777</v>
       </c>
       <c r="K38" t="n">
-        <v>547.3128584977793</v>
+        <v>423.9151489921542</v>
       </c>
       <c r="L38" t="n">
-        <v>1248.917014541577</v>
+        <v>1125.519305035952</v>
       </c>
       <c r="M38" t="n">
-        <v>2046.193368261468</v>
+        <v>1922.795658755843</v>
       </c>
       <c r="N38" t="n">
-        <v>2408.765034197634</v>
+        <v>2718.340779859873</v>
       </c>
       <c r="O38" t="n">
-        <v>3114.78809522183</v>
+        <v>3424.363840884069</v>
       </c>
       <c r="P38" t="n">
-        <v>3460.491244296799</v>
+        <v>3670.683085050104</v>
       </c>
       <c r="Q38" t="n">
         <v>3807.485832605501</v>
@@ -7217,7 +7217,7 @@
         <v>2564.612362421991</v>
       </c>
       <c r="Y38" t="n">
-        <v>2243.29312148622</v>
+        <v>2243.293121486221</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>76.14971665211003</v>
       </c>
       <c r="J39" t="n">
-        <v>242.4709188044723</v>
+        <v>117.6407938174676</v>
       </c>
       <c r="K39" t="n">
-        <v>653.3611876489849</v>
+        <v>528.5310626619802</v>
       </c>
       <c r="L39" t="n">
-        <v>1175.021394210048</v>
+        <v>775.2961905684441</v>
       </c>
       <c r="M39" t="n">
-        <v>1482.34152749001</v>
+        <v>1082.616323848406</v>
       </c>
       <c r="N39" t="n">
-        <v>1812.204155154042</v>
+        <v>1412.478951512438</v>
       </c>
       <c r="O39" t="n">
-        <v>2091.744220372739</v>
+        <v>2081.942712815097</v>
       </c>
       <c r="P39" t="n">
-        <v>2296.766701154948</v>
+        <v>2515.373228110739</v>
       </c>
       <c r="Q39" t="n">
-        <v>2591.876118470662</v>
+        <v>2602.506130567962</v>
       </c>
       <c r="R39" t="n">
         <v>2602.506130567962</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>638.392864302657</v>
+        <v>638.3928643026572</v>
       </c>
       <c r="C40" t="n">
-        <v>538.2767724147911</v>
+        <v>538.2767724147914</v>
       </c>
       <c r="D40" t="n">
-        <v>456.9802240424965</v>
+        <v>456.9802240424967</v>
       </c>
       <c r="E40" t="n">
-        <v>377.8872215001444</v>
+        <v>377.8872215001447</v>
       </c>
       <c r="F40" t="n">
-        <v>299.8173650422751</v>
+        <v>299.8173650422755</v>
       </c>
       <c r="G40" t="n">
-        <v>200.4621344021368</v>
+        <v>200.4621344021372</v>
       </c>
       <c r="H40" t="n">
         <v>118.8642169901215</v>
@@ -7333,13 +7333,13 @@
         <v>155.9829803443641</v>
       </c>
       <c r="K40" t="n">
-        <v>373.6189558173198</v>
+        <v>373.6189558173201</v>
       </c>
       <c r="L40" t="n">
-        <v>688.7815720567933</v>
+        <v>688.7815720567935</v>
       </c>
       <c r="M40" t="n">
-        <v>1027.79888605232</v>
+        <v>1027.798886052321</v>
       </c>
       <c r="N40" t="n">
         <v>1365.793566308212</v>
@@ -7372,10 +7372,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X40" t="n">
-        <v>903.1937261963446</v>
+        <v>903.1937261963449</v>
       </c>
       <c r="Y40" t="n">
-        <v>751.2212380928556</v>
+        <v>751.2212380928559</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1925.51337246214</v>
+        <v>1925.513372462139</v>
       </c>
       <c r="C41" t="n">
         <v>1625.370946561769</v>
       </c>
       <c r="D41" t="n">
-        <v>1335.92533899506</v>
+        <v>1335.925338995059</v>
       </c>
       <c r="E41" t="n">
         <v>1018.957177436856</v>
@@ -7412,16 +7412,16 @@
         <v>344.8139583742028</v>
       </c>
       <c r="K41" t="n">
-        <v>547.3128584977793</v>
+        <v>590.7154876889665</v>
       </c>
       <c r="L41" t="n">
-        <v>1248.917014541577</v>
+        <v>1292.319643732764</v>
       </c>
       <c r="M41" t="n">
-        <v>2046.193368261468</v>
+        <v>2089.595997452655</v>
       </c>
       <c r="N41" t="n">
-        <v>2841.738489365498</v>
+        <v>2885.141118556686</v>
       </c>
       <c r="O41" t="n">
         <v>3214.172000130764</v>
@@ -7488,25 +7488,25 @@
         <v>76.14971665211003</v>
       </c>
       <c r="J42" t="n">
-        <v>242.4709188044723</v>
+        <v>117.6407938174676</v>
       </c>
       <c r="K42" t="n">
-        <v>653.3611876489849</v>
+        <v>266.7104780195274</v>
       </c>
       <c r="L42" t="n">
-        <v>1185.651406307348</v>
+        <v>513.4756059259913</v>
       </c>
       <c r="M42" t="n">
-        <v>1492.97153958731</v>
+        <v>1226.399103845682</v>
       </c>
       <c r="N42" t="n">
-        <v>1822.834167251342</v>
+        <v>2030.810682109833</v>
       </c>
       <c r="O42" t="n">
-        <v>2102.374232470039</v>
+        <v>2310.35074732853</v>
       </c>
       <c r="P42" t="n">
-        <v>2307.396713252248</v>
+        <v>2515.373228110739</v>
       </c>
       <c r="Q42" t="n">
         <v>2602.506130567962</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>638.3928643026572</v>
+        <v>638.392864302657</v>
       </c>
       <c r="C43" t="n">
-        <v>538.2767724147914</v>
+        <v>538.2767724147913</v>
       </c>
       <c r="D43" t="n">
-        <v>456.9802240424967</v>
+        <v>456.9802240424966</v>
       </c>
       <c r="E43" t="n">
-        <v>377.8872215001447</v>
+        <v>377.8872215001446</v>
       </c>
       <c r="F43" t="n">
         <v>299.8173650422754</v>
@@ -7561,7 +7561,7 @@
         <v>200.4621344021371</v>
       </c>
       <c r="H43" t="n">
-        <v>118.8642169901215</v>
+        <v>118.8642169901214</v>
       </c>
       <c r="I43" t="n">
         <v>76.14971665211003</v>
@@ -7570,7 +7570,7 @@
         <v>155.9829803443641</v>
       </c>
       <c r="K43" t="n">
-        <v>373.6189558173197</v>
+        <v>373.6189558173198</v>
       </c>
       <c r="L43" t="n">
         <v>688.7815720567933</v>
@@ -7600,19 +7600,19 @@
         <v>1689.133209963487</v>
       </c>
       <c r="U43" t="n">
-        <v>1468.824662217087</v>
+        <v>1468.824662217086</v>
       </c>
       <c r="V43" t="n">
-        <v>1282.960265051241</v>
+        <v>1282.96026505124</v>
       </c>
       <c r="W43" t="n">
         <v>1062.363186054321</v>
       </c>
       <c r="X43" t="n">
-        <v>903.1937261963449</v>
+        <v>903.1937261963446</v>
       </c>
       <c r="Y43" t="n">
-        <v>751.2212380928559</v>
+        <v>751.2212380928556</v>
       </c>
     </row>
     <row r="44">
@@ -7646,25 +7646,25 @@
         <v>76.14971665211003</v>
       </c>
       <c r="J44" t="n">
-        <v>344.8139583742028</v>
+        <v>177.4083093538497</v>
       </c>
       <c r="K44" t="n">
-        <v>547.3128584977793</v>
+        <v>379.9072094774262</v>
       </c>
       <c r="L44" t="n">
-        <v>1248.917014541577</v>
+        <v>1081.511365521224</v>
       </c>
       <c r="M44" t="n">
-        <v>2046.193368261468</v>
+        <v>1878.787719241115</v>
       </c>
       <c r="N44" t="n">
-        <v>2408.765034197634</v>
+        <v>2674.332840345145</v>
       </c>
       <c r="O44" t="n">
-        <v>3114.78809522183</v>
+        <v>3380.355901369341</v>
       </c>
       <c r="P44" t="n">
-        <v>3460.491244296799</v>
+        <v>3670.683085050104</v>
       </c>
       <c r="Q44" t="n">
         <v>3807.485832605501</v>
@@ -7731,19 +7731,19 @@
         <v>653.3611876489849</v>
       </c>
       <c r="L45" t="n">
-        <v>900.1263155554489</v>
+        <v>1078.349780212301</v>
       </c>
       <c r="M45" t="n">
-        <v>1207.44644883541</v>
+        <v>1385.669913492262</v>
       </c>
       <c r="N45" t="n">
-        <v>1537.309076499443</v>
+        <v>1715.532541156295</v>
       </c>
       <c r="O45" t="n">
-        <v>1816.84914171814</v>
+        <v>1995.072606374992</v>
       </c>
       <c r="P45" t="n">
-        <v>2307.396713252248</v>
+        <v>2515.373228110739</v>
       </c>
       <c r="Q45" t="n">
         <v>2602.506130567962</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>638.3928643026567</v>
+        <v>638.3928643026569</v>
       </c>
       <c r="C46" t="n">
-        <v>538.2767724147908</v>
+        <v>538.276772414791</v>
       </c>
       <c r="D46" t="n">
-        <v>456.9802240424962</v>
+        <v>456.9802240424964</v>
       </c>
       <c r="E46" t="n">
-        <v>377.8872215001442</v>
+        <v>377.8872215001443</v>
       </c>
       <c r="F46" t="n">
-        <v>299.8173650422749</v>
+        <v>299.8173650422751</v>
       </c>
       <c r="G46" t="n">
-        <v>200.4621344021366</v>
+        <v>200.4621344021368</v>
       </c>
       <c r="H46" t="n">
         <v>118.8642169901215</v>
@@ -7804,10 +7804,10 @@
         <v>76.14971665211003</v>
       </c>
       <c r="J46" t="n">
-        <v>155.9829803443641</v>
+        <v>155.982980344364</v>
       </c>
       <c r="K46" t="n">
-        <v>373.6189558173198</v>
+        <v>373.6189558173197</v>
       </c>
       <c r="L46" t="n">
         <v>688.7815720567933</v>
@@ -7846,10 +7846,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X46" t="n">
-        <v>903.1937261963442</v>
+        <v>903.1937261963446</v>
       </c>
       <c r="Y46" t="n">
-        <v>751.2212380928553</v>
+        <v>751.2212380928555</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,19 +8064,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6863523863096</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273547</v>
+        <v>270.015839604924</v>
       </c>
       <c r="O3" t="n">
-        <v>124.673618687554</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,19 +8301,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>434.0896122856903</v>
+        <v>434.0896122856905</v>
       </c>
       <c r="N6" t="n">
-        <v>120.2963462185775</v>
+        <v>418.4360093708456</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>95.72265612446166</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>114.8336753070149</v>
+        <v>114.8336753070148</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229573</v>
+        <v>199.6230805871088</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>392.1113620226436</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,13 +9252,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>73.5320452467011</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298389</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208072</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720756</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298389</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776759</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735881</v>
       </c>
       <c r="R24" t="n">
         <v>34.7842838544522</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298389</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>176.7176547498458</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,13 +9966,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776759</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.7842838544522</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298389</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776759</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,13 +10440,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776759</v>
+        <v>230.7151863772044</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.7842838544522</v>
@@ -10586,10 +10586,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>43.84103958705779</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10598,10 +10598,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>139.7035459660259</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>176.7176547498458</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208072</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>44.45246415629089</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10832,16 +10832,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>100.3877827362968</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>5.891030169484395</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>277.6717966208073</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>230.7151863772044</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>43.84103958705779</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>43.84103958705794</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11136,19 +11136,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>288.4091825776761</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.700368322959</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.7842838544522</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11306,16 +11306,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>100.3877827362968</v>
+        <v>44.45246415629111</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>5.891030169484395</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>180.0237016735878</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776759</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.7842838544522</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>26.93116351641892</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23464,10 +23464,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>14.45548819888959</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>93.61872201572604</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23704,13 +23704,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>59.2956329440367</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>58.05660618413323</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>17.05017942927486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>27.43837499384608</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24178,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>177.8784842440988</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>161.4308946390849</v>
       </c>
       <c r="C25" t="n">
-        <v>148.8457355557755</v>
+        <v>148.8457355557754</v>
       </c>
       <c r="D25" t="n">
         <v>130.21438747536</v>
@@ -24373,16 +24373,16 @@
         <v>128.0328771037168</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>127.0199624800788</v>
       </c>
       <c r="G25" t="n">
         <v>148.0924829205252</v>
       </c>
       <c r="H25" t="n">
-        <v>33.59897393323843</v>
+        <v>130.5127428246837</v>
       </c>
       <c r="I25" t="n">
-        <v>92.01815992141964</v>
+        <v>92.0181599214196</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>91.56326686094044</v>
+        <v>91.5632668609404</v>
       </c>
       <c r="S25" t="n">
-        <v>179.5197244407509</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>233.7365577809757</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>27.89165621111712</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>110.2590945829551</v>
       </c>
       <c r="C28" t="n">
-        <v>148.8457355557755</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>130.21438747536</v>
@@ -24610,16 +24610,16 @@
         <v>128.0328771037168</v>
       </c>
       <c r="F28" t="n">
-        <v>127.0199624800789</v>
+        <v>127.0199624800788</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>20.57178529893583</v>
+        <v>130.5127428246837</v>
       </c>
       <c r="I28" t="n">
-        <v>92.01815992141964</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>91.56326686094044</v>
+        <v>91.5632668609404</v>
       </c>
       <c r="S28" t="n">
-        <v>179.5197244407509</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>267.836266855725</v>
+        <v>267.8362668557249</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>200.1835678092424</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>161.4308946390849</v>
       </c>
       <c r="C31" t="n">
-        <v>110.8633321346388</v>
+        <v>148.8457355557754</v>
       </c>
       <c r="D31" t="n">
         <v>130.21438747536</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>128.0328771037168</v>
       </c>
       <c r="F31" t="n">
-        <v>127.0199624800789</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>148.0924829205252</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>130.5127428246838</v>
+        <v>130.5127428246837</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>92.0181599214196</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>91.56326686094044</v>
+        <v>91.5632668609404</v>
       </c>
       <c r="S31" t="n">
-        <v>179.5197244407509</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>267.836266855725</v>
+        <v>102.8205338024787</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>200.1835678092424</v>
       </c>
     </row>
     <row r="32">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1157206.44804506</v>
+        <v>1157206.448045061</v>
       </c>
     </row>
     <row r="9">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="C2" t="n">
         <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="E2" t="n">
-        <v>254168.8888295107</v>
+        <v>254168.8888295108</v>
       </c>
       <c r="F2" t="n">
         <v>254168.8888295107</v>
@@ -26332,28 +26332,28 @@
         <v>254168.8888295108</v>
       </c>
       <c r="I2" t="n">
-        <v>257590.7223111492</v>
+        <v>257590.7223111494</v>
       </c>
       <c r="J2" t="n">
+        <v>257590.7223111491</v>
+      </c>
+      <c r="K2" t="n">
         <v>257590.7223111493</v>
       </c>
-      <c r="K2" t="n">
-        <v>257590.7223111492</v>
-      </c>
       <c r="L2" t="n">
+        <v>266838.5752058921</v>
+      </c>
+      <c r="M2" t="n">
         <v>266838.5752058923</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>266838.5752058923</v>
+      </c>
+      <c r="O2" t="n">
         <v>266838.5752058924</v>
       </c>
-      <c r="N2" t="n">
-        <v>266838.5752058924</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>266838.5752058923</v>
-      </c>
-      <c r="P2" t="n">
-        <v>266838.5752058924</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.3414468129</v>
+        <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>72744.75223794649</v>
+        <v>72744.75223794683</v>
       </c>
       <c r="D3" t="n">
-        <v>348321.896293641</v>
+        <v>348321.8962936407</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>14720.86843428189</v>
+        <v>14720.86843428192</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113901</v>
+        <v>72254.69487113913</v>
       </c>
       <c r="K3" t="n">
-        <v>16913.40047303582</v>
+        <v>16913.40047303572</v>
       </c>
       <c r="L3" t="n">
-        <v>123915.6258741633</v>
+        <v>123915.6258741632</v>
       </c>
       <c r="M3" t="n">
-        <v>69175.08933762908</v>
+        <v>69175.08933762902</v>
       </c>
       <c r="N3" t="n">
-        <v>14720.86843428191</v>
+        <v>14720.86843428193</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>316926.9684369122</v>
+        <v>316926.9684369123</v>
       </c>
       <c r="C4" t="n">
-        <v>296337.309221119</v>
+        <v>296337.3092211189</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>43561.42148316555</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="F4" t="n">
-        <v>43561.42148316555</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="G4" t="n">
-        <v>43561.4214831656</v>
+        <v>43561.42148316561</v>
       </c>
       <c r="H4" t="n">
-        <v>43561.42148316561</v>
+        <v>43561.42148316558</v>
       </c>
       <c r="I4" t="n">
-        <v>49616.29565456443</v>
+        <v>49616.29565456444</v>
       </c>
       <c r="J4" t="n">
-        <v>49616.29565456446</v>
+        <v>49616.29565456444</v>
       </c>
       <c r="K4" t="n">
-        <v>49616.29565456443</v>
+        <v>49616.29565456447</v>
       </c>
       <c r="L4" t="n">
         <v>65980.20872448606</v>
@@ -26451,10 +26451,10 @@
         <v>99837.12979766785</v>
       </c>
       <c r="N4" t="n">
-        <v>99837.12979766786</v>
+        <v>99837.12979766785</v>
       </c>
       <c r="O4" t="n">
-        <v>99837.12979766785</v>
+        <v>99837.12979766788</v>
       </c>
       <c r="P4" t="n">
         <v>99837.12979766785</v>
@@ -26470,31 +26470,31 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>56410.2065304916</v>
+        <v>56410.20653049163</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>93534.2868092187</v>
       </c>
       <c r="J5" t="n">
-        <v>93534.28680921868</v>
+        <v>93534.2868092187</v>
       </c>
       <c r="K5" t="n">
-        <v>93534.2868092187</v>
+        <v>93534.28680921867</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-227563.1141946131</v>
+        <v>-227563.1141946132</v>
       </c>
       <c r="C6" t="n">
-        <v>-158653.692783665</v>
+        <v>-158653.6927836652</v>
       </c>
       <c r="D6" t="n">
-        <v>-356548.995543588</v>
+        <v>-356548.9955435877</v>
       </c>
       <c r="E6" t="n">
-        <v>-406539.8950792678</v>
+        <v>-406637.3542052397</v>
       </c>
       <c r="F6" t="n">
-        <v>118620.1413976288</v>
+        <v>118522.6822716563</v>
       </c>
       <c r="G6" t="n">
-        <v>118620.1413976287</v>
+        <v>118522.6822716567</v>
       </c>
       <c r="H6" t="n">
-        <v>118620.1413976286</v>
+        <v>118522.6822716564</v>
       </c>
       <c r="I6" t="n">
-        <v>99719.27141308421</v>
+        <v>99648.13408312479</v>
       </c>
       <c r="J6" t="n">
-        <v>42185.44497622714</v>
+        <v>42114.30764626727</v>
       </c>
       <c r="K6" t="n">
-        <v>97526.73937433027</v>
+        <v>97455.60204437085</v>
       </c>
       <c r="L6" t="n">
-        <v>-20772.36521278246</v>
+        <v>-20772.36521278255</v>
       </c>
       <c r="M6" t="n">
         <v>16122.45510478369</v>
       </c>
       <c r="N6" t="n">
-        <v>70576.67600813093</v>
+        <v>70576.67600813079</v>
       </c>
       <c r="O6" t="n">
+        <v>85297.54444241275</v>
+      </c>
+      <c r="P6" t="n">
         <v>85297.54444241272</v>
-      </c>
-      <c r="P6" t="n">
-        <v>85297.54444241278</v>
       </c>
     </row>
   </sheetData>
@@ -26704,13 +26704,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="J2" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="K2" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964065</v>
@@ -26719,10 +26719,10 @@
         <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>91.59216845020292</v>
+        <v>91.59216845020322</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541001</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>341.8733101690325</v>
+        <v>341.8733101690329</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49.7308045867883</v>
+        <v>49.73080458678825</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285241</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>56.57090773107763</v>
+        <v>56.57090773107788</v>
       </c>
       <c r="D3" t="n">
-        <v>286.1514957668838</v>
+        <v>286.1514957668835</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>65.71679646667712</v>
+        <v>65.71679646667742</v>
       </c>
       <c r="D4" t="n">
-        <v>332.4139625855231</v>
+        <v>332.4139625855227</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023551</v>
+        <v>276.1565137023556</v>
       </c>
       <c r="K4" t="n">
-        <v>65.71679646667735</v>
+        <v>65.71679646667697</v>
       </c>
       <c r="L4" t="n">
-        <v>332.4139625855231</v>
+        <v>332.4139625855232</v>
       </c>
       <c r="M4" t="n">
-        <v>277.5841853968197</v>
+        <v>277.5841853968195</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>65.71679646667712</v>
+        <v>65.71679646667742</v>
       </c>
       <c r="L4" t="n">
-        <v>332.4139625855231</v>
+        <v>332.4139625855227</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>345.3070249208438</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,13 +27391,13 @@
         <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
-        <v>139.0054348249641</v>
+        <v>352.1492894623864</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>73.08445501505759</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611355</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,22 +27455,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>105.6880708229097</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>73.48169185179643</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27509,16 +27509,16 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27546,13 +27546,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>131.9555381729305</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6656840978772</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>153.551289182031</v>
@@ -27591,7 +27591,7 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>111.1843906944439</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>40.86053149444768</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>79.08540796684565</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>40.05705990322889</v>
       </c>
       <c r="F5" t="n">
-        <v>65.00273557267889</v>
+        <v>65.00273557267855</v>
       </c>
       <c r="G5" t="n">
-        <v>73.06121762368963</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>110.4730482815424</v>
+        <v>335.7038742961063</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>196.2804842470835</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>200.6294905367619</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.484011504269</v>
       </c>
       <c r="U5" t="n">
         <v>251.3161961300435</v>
@@ -27698,13 +27698,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>55.89605738996569</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.1465075933366</v>
@@ -27713,7 +27713,7 @@
         <v>110.3327465485026</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>82.61362792373494</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>87.92595927923678</v>
+        <v>87.92595927923674</v>
       </c>
       <c r="S6" t="n">
         <v>168.023804751134</v>
@@ -27749,19 +27749,19 @@
         <v>199.3706418758996</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9284209250621</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>22.89613095734188</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27795,10 +27795,10 @@
         <v>150.4834766775325</v>
       </c>
       <c r="J7" t="n">
-        <v>81.68192939475101</v>
+        <v>81.68192939475097</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>3.080181780086185</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>72.33162581571375</v>
+        <v>72.33162581571369</v>
       </c>
       <c r="R7" t="n">
-        <v>169.8669181779121</v>
+        <v>169.866918177912</v>
       </c>
       <c r="S7" t="n">
-        <v>221.1382015301028</v>
+        <v>221.1382015301027</v>
       </c>
       <c r="T7" t="n">
         <v>227.2398792779275</v>
       </c>
       <c r="U7" t="n">
-        <v>42.19667831850307</v>
+        <v>286.3100202907417</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>4.944119571502824</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>295.107375909857</v>
+        <v>228.7953748711793</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>63.76985699942756</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>122.4840039614897</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.20792265079217e-12</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="C25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="D25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="E25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="F25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="G25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="H25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="I25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="J25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="K25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="L25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="M25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="N25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="O25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="P25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="R25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="S25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="T25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="U25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="V25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="W25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="X25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
     </row>
     <row r="26">
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="C28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="D28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="E28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="F28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="G28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="H28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="I28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="J28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="K28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="L28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="M28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="N28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="O28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="P28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="R28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="S28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="T28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="U28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="V28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="W28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="X28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="Y28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
     </row>
     <row r="29">
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="C31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="D31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="E31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="F31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="G31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="H31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="I31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="J31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="K31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="L31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="M31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="N31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="O31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="P31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="R31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="S31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="T31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="U31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="V31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="W31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="X31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="Y31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.4010855428524</v>
       </c>
     </row>
     <row r="32">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F38" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964091</v>
       </c>
       <c r="X38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964074</v>
       </c>
       <c r="G41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V41" t="n">
-        <v>68.13189012964045</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30748,13 +30748,13 @@
         <v>68.13189012964067</v>
       </c>
       <c r="T44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964048</v>
       </c>
       <c r="U44" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="V44" t="n">
-        <v>68.13189012964045</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W44" t="n">
         <v>68.13189012964067</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466299</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760113</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587037</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779982</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192328</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948808</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N4" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R4" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3682097224128758</v>
+        <v>0.368209722412877</v>
       </c>
       <c r="H5" t="n">
-        <v>3.770927819660865</v>
+        <v>3.770927819660877</v>
       </c>
       <c r="I5" t="n">
-        <v>14.19540532332241</v>
+        <v>14.19540532332245</v>
       </c>
       <c r="J5" t="n">
-        <v>31.25133992763984</v>
+        <v>31.25133992763995</v>
       </c>
       <c r="K5" t="n">
-        <v>46.83765747737689</v>
+        <v>46.83765747737704</v>
       </c>
       <c r="L5" t="n">
-        <v>58.10625576966994</v>
+        <v>58.10625576967013</v>
       </c>
       <c r="M5" t="n">
-        <v>64.65440542062993</v>
+        <v>64.65440542063013</v>
       </c>
       <c r="N5" t="n">
-        <v>65.70058129443551</v>
+        <v>65.70058129443572</v>
       </c>
       <c r="O5" t="n">
-        <v>62.03919586719248</v>
+        <v>62.03919586719267</v>
       </c>
       <c r="P5" t="n">
-        <v>52.94901834512459</v>
+        <v>52.94901834512476</v>
       </c>
       <c r="Q5" t="n">
-        <v>39.76250766121347</v>
+        <v>39.7625076612136</v>
       </c>
       <c r="R5" t="n">
-        <v>23.12955397551783</v>
+        <v>23.1295539755179</v>
       </c>
       <c r="S5" t="n">
-        <v>8.390579049483415</v>
+        <v>8.390579049483442</v>
       </c>
       <c r="T5" t="n">
-        <v>1.611838059862365</v>
+        <v>1.61183805986237</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02945677779303005</v>
+        <v>0.02945677779303015</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1970095698740214</v>
+        <v>0.197009569874022</v>
       </c>
       <c r="H6" t="n">
-        <v>1.902697687993838</v>
+        <v>1.902697687993845</v>
       </c>
       <c r="I6" t="n">
-        <v>6.783004927680123</v>
+        <v>6.783004927680145</v>
       </c>
       <c r="J6" t="n">
-        <v>18.61308396779077</v>
+        <v>18.61308396779083</v>
       </c>
       <c r="K6" t="n">
-        <v>31.8127251493502</v>
+        <v>31.8127251493503</v>
       </c>
       <c r="L6" t="n">
-        <v>42.77613489742732</v>
+        <v>42.77613489742746</v>
       </c>
       <c r="M6" t="n">
-        <v>49.91773180536058</v>
+        <v>49.91773180536075</v>
       </c>
       <c r="N6" t="n">
-        <v>51.23890563140173</v>
+        <v>51.2389056314019</v>
       </c>
       <c r="O6" t="n">
-        <v>46.87358831998262</v>
+        <v>46.87358831998277</v>
       </c>
       <c r="P6" t="n">
-        <v>37.62018707532958</v>
+        <v>37.6201870753297</v>
       </c>
       <c r="Q6" t="n">
-        <v>25.14809877900666</v>
+        <v>25.14809877900674</v>
       </c>
       <c r="R6" t="n">
-        <v>12.23187487340635</v>
+        <v>12.23187487340639</v>
       </c>
       <c r="S6" t="n">
-        <v>3.65936635270386</v>
+        <v>3.659366352703871</v>
       </c>
       <c r="T6" t="n">
-        <v>0.794086818922042</v>
+        <v>0.7940868189220446</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01296115591276457</v>
+        <v>0.01296115591276461</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1651662054020052</v>
+        <v>0.1651662054020058</v>
       </c>
       <c r="H7" t="n">
-        <v>1.468477717119648</v>
+        <v>1.468477717119653</v>
       </c>
       <c r="I7" t="n">
-        <v>4.966998249725759</v>
+        <v>4.966998249725775</v>
       </c>
       <c r="J7" t="n">
-        <v>11.67725072192177</v>
+        <v>11.67725072192181</v>
       </c>
       <c r="K7" t="n">
-        <v>19.18931004579661</v>
+        <v>19.18931004579667</v>
       </c>
       <c r="L7" t="n">
-        <v>24.55571021040359</v>
+        <v>24.55571021040366</v>
       </c>
       <c r="M7" t="n">
-        <v>25.89055345224342</v>
+        <v>25.8905534522435</v>
       </c>
       <c r="N7" t="n">
-        <v>25.27493395938142</v>
+        <v>25.2749339593815</v>
       </c>
       <c r="O7" t="n">
-        <v>23.34549237809435</v>
+        <v>23.34549237809443</v>
       </c>
       <c r="P7" t="n">
-        <v>19.97610178789343</v>
+        <v>19.97610178789349</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.83041743598064</v>
+        <v>13.83041743598069</v>
       </c>
       <c r="R7" t="n">
-        <v>7.426473199257434</v>
+        <v>7.426473199257458</v>
       </c>
       <c r="S7" t="n">
-        <v>2.87839650686949</v>
+        <v>2.8783965068695</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7057101503540222</v>
+        <v>0.7057101503540245</v>
       </c>
       <c r="U7" t="n">
-        <v>0.009009065749200297</v>
+        <v>0.009009065749200325</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31762,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522125</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315784</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>224.6389055562146</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023554</v>
+        <v>158.2658797799248</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821095</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062263</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>19.30205057302733</v>
+        <v>19.30205057302743</v>
       </c>
       <c r="K5" t="n">
-        <v>150.8932190035611</v>
+        <v>150.8932190035612</v>
       </c>
       <c r="L5" t="n">
-        <v>240.0010553501331</v>
+        <v>240.0010553501333</v>
       </c>
       <c r="M5" t="n">
-        <v>283.8217056861897</v>
+        <v>283.8217056861899</v>
       </c>
       <c r="N5" t="n">
-        <v>273.6344421098287</v>
+        <v>273.634442109829</v>
       </c>
       <c r="O5" t="n">
-        <v>212.7411657082511</v>
+        <v>212.7411657082513</v>
       </c>
       <c r="P5" t="n">
-        <v>143.5147307613377</v>
+        <v>143.5147307613379</v>
       </c>
       <c r="Q5" t="n">
-        <v>29.77180844666866</v>
+        <v>29.77180844666879</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>17.86649264153291</v>
+        <v>17.86649264153297</v>
       </c>
       <c r="K6" t="n">
-        <v>158.4365231875698</v>
+        <v>158.4365231875699</v>
       </c>
       <c r="L6" t="n">
-        <v>275.0621004210123</v>
+        <v>275.0621004210125</v>
       </c>
       <c r="M6" t="n">
-        <v>341.8733101690325</v>
+        <v>341.8733101690329</v>
       </c>
       <c r="N6" t="n">
-        <v>40.19353976664597</v>
+        <v>338.3332029189142</v>
       </c>
       <c r="O6" t="n">
-        <v>298.1396631522677</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>222.1085483009365</v>
+        <v>222.1085483009366</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>52.14573547071973</v>
+        <v>52.1457354707198</v>
       </c>
       <c r="M7" t="n">
-        <v>65.47443041408401</v>
+        <v>65.47443041408408</v>
       </c>
       <c r="N7" t="n">
-        <v>69.40710633861002</v>
+        <v>69.40710633861009</v>
       </c>
       <c r="O7" t="n">
-        <v>47.93062029213402</v>
+        <v>47.9306202921341</v>
       </c>
       <c r="P7" t="n">
-        <v>17.25466105278691</v>
+        <v>17.25466105278698</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734237</v>
+        <v>510.0474576375751</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>702.5357390731098</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560242</v>
@@ -35972,13 +35972,13 @@
         <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>280.6254601782257</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523318</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415096</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303329</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36452,10 +36452,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586621</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.90885570841786</v>
+        <v>30.9088557084179</v>
       </c>
       <c r="K25" t="n">
         <v>170.1035140727629</v>
       </c>
       <c r="L25" t="n">
-        <v>268.6152724227808</v>
+        <v>268.6152724227809</v>
       </c>
       <c r="M25" t="n">
         <v>292.7109267218248</v>
       </c>
       <c r="N25" t="n">
-        <v>291.6779633484559</v>
+        <v>291.677963348456</v>
       </c>
       <c r="O25" t="n">
         <v>254.6384370634552</v>
@@ -36534,7 +36534,7 @@
         <v>196.7846861546531</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.62678551472708</v>
+        <v>57.62678551472712</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560242</v>
+        <v>425.9753597058701</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504661</v>
@@ -36686,13 +36686,13 @@
         <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.90885570841786</v>
+        <v>30.9088557084179</v>
       </c>
       <c r="K28" t="n">
         <v>170.1035140727629</v>
       </c>
       <c r="L28" t="n">
-        <v>268.6152724227808</v>
+        <v>268.6152724227809</v>
       </c>
       <c r="M28" t="n">
         <v>292.7109267218248</v>
       </c>
       <c r="N28" t="n">
-        <v>291.6779633484559</v>
+        <v>291.677963348456</v>
       </c>
       <c r="O28" t="n">
         <v>254.6384370634552</v>
@@ -36771,7 +36771,7 @@
         <v>196.7846861546531</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.62678551472708</v>
+        <v>57.62678551472712</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092005</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.90885570841786</v>
+        <v>30.9088557084179</v>
       </c>
       <c r="K31" t="n">
         <v>170.1035140727629</v>
       </c>
       <c r="L31" t="n">
-        <v>268.6152724227808</v>
+        <v>268.6152724227809</v>
       </c>
       <c r="M31" t="n">
         <v>292.7109267218248</v>
       </c>
       <c r="N31" t="n">
-        <v>291.6779633484559</v>
+        <v>291.677963348456</v>
       </c>
       <c r="O31" t="n">
         <v>254.6384370634552</v>
@@ -37008,7 +37008,7 @@
         <v>196.7846861546531</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.62678551472708</v>
+        <v>57.62678551472712</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37160,13 +37160,13 @@
         <v>333.1945733980127</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092005</v>
+        <v>437.808601308729</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086131</v>
+        <v>342.441731308613</v>
       </c>
       <c r="N34" t="n">
         <v>341.4087679352442</v>
@@ -37306,10 +37306,10 @@
         <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>204.5443435591682</v>
+        <v>248.385383146226</v>
       </c>
       <c r="L35" t="n">
-        <v>291.0298521604566</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
@@ -37318,10 +37318,10 @@
         <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>472.0579717984276</v>
+        <v>332.3544258324017</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>248.8073173394296</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502047</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>425.9753597058701</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504661</v>
@@ -37397,16 +37397,16 @@
         <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523318</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>146.7338709257249</v>
       </c>
       <c r="K38" t="n">
         <v>204.5443435591682</v>
@@ -37552,16 +37552,16 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>366.2340059961276</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>349.1951000757264</v>
+        <v>248.8073173394296</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>138.1845934903</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>526.9295015768315</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504661</v>
@@ -37634,16 +37634,16 @@
         <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>437.808601308729</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37707,10 +37707,10 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086131</v>
+        <v>342.441731308613</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>204.5443435591682</v>
+        <v>248.385383146226</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109071</v>
@@ -37792,7 +37792,7 @@
         <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>376.1954654194597</v>
+        <v>332.3544258324017</v>
       </c>
       <c r="P41" t="n">
         <v>248.8073173394296</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>537.6668875337003</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>720.1247453734252</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
@@ -37877,7 +37877,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>102.2814067694341</v>
       </c>
       <c r="K44" t="n">
         <v>204.5443435591682</v>
@@ -38026,16 +38026,16 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>366.2340059961276</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
-        <v>349.1951000757264</v>
+        <v>293.2597814957207</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502047</v>
+        <v>138.1845934903</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560242</v>
+        <v>429.281406629612</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504661</v>
@@ -38111,10 +38111,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
